--- a/document/excel_upload_자료/TBL_EXP_FIN_ANAL_EXECUTIVE.xlsx
+++ b/document/excel_upload_자료/TBL_EXP_FIN_ANAL_EXECUTIVE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\두견\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8390B6-9BBB-458A-BA0B-48E12C3C4DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F31ADEF-B89E-407F-895D-997F28A7820D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
   <si>
     <t>Table명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,45 +77,161 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBL_EXP_FIN_ANAL_EXECUTIVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임원현황연번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취임일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재선임일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근등기일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 재선임일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25FC</t>
+  </si>
+  <si>
+    <t>대표이사</t>
+  </si>
+  <si>
+    <t>이성욱</t>
+  </si>
+  <si>
+    <t>본인</t>
+  </si>
+  <si>
+    <t>2024.08.01</t>
+  </si>
+  <si>
+    <t>사내이사</t>
+  </si>
+  <si>
+    <t>신승환</t>
+  </si>
+  <si>
+    <t>기타</t>
+  </si>
+  <si>
+    <t>배상수</t>
+  </si>
+  <si>
+    <t>감사</t>
+  </si>
+  <si>
+    <t>손재석</t>
+  </si>
+  <si>
+    <t>2016.10.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.02.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.10.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.10.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.10.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JIKWI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATIONSHIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INAUGURATION_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REAPPOINTMENT_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAST_REGISTERED_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEXT_REAPPOINTMENT_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BASE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>BUYER_ID</t>
-  </si>
-  <si>
-    <t>SEQ</t>
-  </si>
-  <si>
-    <t>1/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBL_EXP_FIN_ANAL_EXECUTIVE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JIKWI</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>AGE</t>
-  </si>
-  <si>
-    <t>RELATIONSHIP</t>
-  </si>
-  <si>
-    <t>INAUGURATION_DATE</t>
-  </si>
-  <si>
-    <t>REAPPOINTMENT_DATE</t>
-  </si>
-  <si>
-    <t>LAST_REGISTERED_DATE</t>
-  </si>
-  <si>
-    <t>NEXT_REAPPOINTMENT_DATE</t>
-  </si>
-  <si>
-    <t>BASE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -292,7 +408,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -326,17 +442,20 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -672,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153AC9D0-4242-43A7-80D5-A7E4643E8D4D}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -694,13 +813,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="24">
@@ -721,13 +840,13 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="A3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -738,73 +857,207 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>21</v>
+      <c r="A4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="A5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="10" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
